--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4263B8DF-248C-4CCF-9109-5547B78896E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE41E364-1095-4332-AEF2-6BED3A512C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="184">
   <si>
     <t>Complemento</t>
   </si>
@@ -446,18 +446,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>FITA CETIM - AMARELO</t>
-  </si>
-  <si>
-    <t>S150203</t>
-  </si>
-  <si>
-    <t>FITA CETIM - AZUL</t>
-  </si>
-  <si>
-    <t>FITA CETIM - ROSA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -551,9 +539,6 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>VASSOURA DE PELO SINTETICO</t>
-  </si>
-  <si>
     <t>S110036</t>
   </si>
   <si>
@@ -561,6 +546,51 @@
   </si>
   <si>
     <t>S010040</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PELO SINTETICO - PLASTICO</t>
+  </si>
+  <si>
+    <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - UNICA</t>
+  </si>
+  <si>
+    <t>S020048</t>
+  </si>
+  <si>
+    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S020008</t>
   </si>
 </sst>
 </file>
@@ -643,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -657,16 +687,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
     <dxf>
       <border>
         <bottom style="thin">
           <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF00B0F0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1003,1066 +1075,1380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD66"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D91" sqref="D1:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>809</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>1046</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>1045</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D19" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D20" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D21" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D22" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D23" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D31" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D32" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D33" s="4">
         <v>899</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D34" s="4">
         <v>896</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D35" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D36" s="4">
         <v>898</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D38" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D39" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>910</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>745</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="4">
+      <c r="D52" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="4">
+      <c r="D53" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="4">
+      <c r="D54" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="4">
+      <c r="D57" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="4">
+      <c r="D58" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="4">
+      <c r="D60" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="4">
+      <c r="D62" s="4">
         <v>820</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="4">
+      <c r="D63" s="4">
         <v>819</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="4">
+      <c r="D65" s="4">
         <v>553</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" s="4">
+        <v>174</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" s="4">
         <v>433</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="4">
+      <c r="D67" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="4">
+      <c r="D68" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="4">
+      <c r="D69" s="4">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="4">
+      <c r="D71" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="4">
+      <c r="D72" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="4">
+      <c r="D73" s="4">
         <v>994</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="4">
+      <c r="D74" s="4">
         <v>695</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="4">
+      <c r="D76" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="4">
+      <c r="D78" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="4">
+      <c r="D79" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="4">
+      <c r="D80" s="4">
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" s="4">
+        <v>174</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="4">
         <v>747</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" s="4">
+        <v>174</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="4">
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C83" s="4">
+      <c r="D83" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="4">
+      <c r="D84" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C85" s="4">
+      <c r="D85" s="4">
         <v>799</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C86" s="4">
+      <c r="D86" s="4">
         <v>1127</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="4">
+      <c r="D87" s="4">
         <v>569</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C88" s="4">
+      <c r="D88" s="4">
         <v>762</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C89" s="4">
+      <c r="D89" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="4">
+      <c r="D93" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B94" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="4">
+      <c r="D94" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C73" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
+  <autoFilter ref="A1:D94" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
       <sortCondition ref="A1:A73"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$D1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A1 C1:D1">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C65 A67:C93">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D16 A94:D94 B93:D93 A18:D36 A38:D90 A92:D92">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:C66">
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$E1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A93))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:D17">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:D37">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A37))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91:D91">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A66))&gt;0</formula>
+      <formula>LEN(TRIM(A91))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C67:C93 C4:C65" numberStoredAsText="1"/>
+    <ignoredError sqref="D92:D94 D67:D90 D18:D36 D4:D16 D38:D40 D42:D65 D1:D3 D66 D41 D17 D37 D91" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE41E364-1095-4332-AEF2-6BED3A512C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5C9657-3499-4D35-A54A-2C05D6EF892C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="190">
   <si>
     <t>Complemento</t>
   </si>
@@ -591,6 +591,24 @@
   </si>
   <si>
     <t>S020008</t>
+  </si>
+  <si>
+    <t>MOP PO REFIL - UNICA</t>
+  </si>
+  <si>
+    <t>S010076</t>
+  </si>
+  <si>
+    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S010034</t>
+  </si>
+  <si>
+    <t>KIT MOP UMIDO - UNICA</t>
+  </si>
+  <si>
+    <t>S010086</t>
   </si>
 </sst>
 </file>
@@ -695,50 +713,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
           <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF00B0F0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -779,9 +758,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -819,7 +798,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -925,7 +904,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1067,7 +1046,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D91" sqref="D1:D91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,13 +1686,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1721,41 +1700,41 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D46" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1763,7 +1742,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>172</v>
@@ -1772,54 +1751,54 @@
         <v>65</v>
       </c>
       <c r="D49" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D51" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D52" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>172</v>
@@ -1828,26 +1807,26 @@
         <v>72</v>
       </c>
       <c r="D53" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D54" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>172</v>
@@ -1855,13 +1834,13 @@
       <c r="C55" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>138</v>
+      <c r="D55" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>172</v>
@@ -1870,60 +1849,60 @@
         <v>75</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D58" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>143</v>
+        <v>185</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1931,524 +1910,546 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>125</v>
+        <v>79</v>
+      </c>
+      <c r="D61" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="4">
-        <v>820</v>
+        <v>142</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D63" s="4">
-        <v>819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D65" s="4">
-        <v>553</v>
+        <v>820</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="D66" s="4">
-        <v>433</v>
+        <v>819</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" s="4">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D68" s="4">
-        <v>86</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="D69" s="4">
-        <v>87</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>150</v>
+        <v>88</v>
+      </c>
+      <c r="D70" s="4">
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D71" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D72" s="4">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="4">
-        <v>994</v>
+        <v>90</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D74" s="4">
-        <v>695</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>125</v>
+        <v>92</v>
+      </c>
+      <c r="D75" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D76" s="4">
-        <v>1</v>
+        <v>994</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>125</v>
+        <v>94</v>
+      </c>
+      <c r="D77" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D79" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D80" s="4">
-        <v>107</v>
+        <v>156</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="D81" s="4">
-        <v>747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="D82" s="4">
-        <v>449</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D83" s="4">
-        <v>170</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="D84" s="4">
-        <v>163</v>
+        <v>747</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="D85" s="4">
-        <v>799</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D86" s="4">
-        <v>1127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D87" s="4">
-        <v>569</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D88" s="4">
-        <v>762</v>
+        <v>799</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D89" s="4">
-        <v>211</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
+      </c>
+      <c r="D90" s="4">
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
+      </c>
+      <c r="D91" s="4">
+        <v>762</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="D92" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D93" s="4">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="4" t="s">
+      <c r="B97" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D97" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D94" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
-      <sortCondition ref="A1:A73"/>
+  <autoFilter ref="A1:D97" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
+      <sortCondition ref="A1:A76"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1 C1:D1">
-    <cfRule type="expression" dxfId="6" priority="9">
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D16 A94:D94 B93:D93 A18:D36 A38:D90 A92:D92">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="7">
+  <conditionalFormatting sqref="A2:D44 A46:D97">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$E1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A93))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D17">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A17))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:D37">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A37))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:D91">
+  <conditionalFormatting sqref="A45:D45">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A91))&gt;0</formula>
+      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D92:D94 D67:D90 D18:D36 D4:D16 D38:D40 D42:D65 D1:D3 D66 D41 D17 D37 D91" numberStoredAsText="1"/>
+    <ignoredError sqref="D61:D97 D46:D58 D1:D44" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5C9657-3499-4D35-A54A-2C05D6EF892C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D938126F-CECC-4480-AC0B-232219944EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="192">
   <si>
     <t>Complemento</t>
   </si>
@@ -609,6 +609,12 @@
   </si>
   <si>
     <t>S010086</t>
+  </si>
+  <si>
+    <t>S010002</t>
+  </si>
+  <si>
+    <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
   </si>
 </sst>
 </file>
@@ -713,16 +719,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1054,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,63 +1109,63 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>117</v>
+        <v>190</v>
+      </c>
+      <c r="D4" s="4">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>809</v>
+        <v>119</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4">
-        <v>1046</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>172</v>
@@ -1177,40 +1174,40 @@
         <v>9</v>
       </c>
       <c r="D8" s="4">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4">
-        <v>103</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>172</v>
@@ -1219,68 +1216,68 @@
         <v>13</v>
       </c>
       <c r="D11" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>125</v>
+        <v>18</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
+        <v>124</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>172</v>
@@ -1289,12 +1286,12 @@
         <v>20</v>
       </c>
       <c r="D16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>172</v>
@@ -1303,32 +1300,32 @@
         <v>20</v>
       </c>
       <c r="D17" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1336,83 +1333,83 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4">
-        <v>109</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1420,41 +1417,41 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>125</v>
+        <v>33</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1462,55 +1459,55 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>134</v>
+        <v>37</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1518,21 +1515,21 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="4">
-        <v>899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>172</v>
@@ -1541,12 +1538,12 @@
         <v>45</v>
       </c>
       <c r="D34" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>172</v>
@@ -1555,12 +1552,12 @@
         <v>45</v>
       </c>
       <c r="D35" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>172</v>
@@ -1569,40 +1566,40 @@
         <v>45</v>
       </c>
       <c r="D36" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>125</v>
+        <v>45</v>
+      </c>
+      <c r="D37" s="4">
+        <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="4">
-        <v>166</v>
+        <v>181</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>172</v>
@@ -1611,46 +1608,46 @@
         <v>50</v>
       </c>
       <c r="D39" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>125</v>
+        <v>50</v>
+      </c>
+      <c r="D40" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1658,27 +1655,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="4">
         <v>80</v>
@@ -1686,27 +1683,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1714,41 +1711,41 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D47" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D49" s="4">
         <v>103</v>
@@ -1756,7 +1753,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>172</v>
@@ -1765,54 +1762,54 @@
         <v>65</v>
       </c>
       <c r="D50" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D52" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D53" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>172</v>
@@ -1821,26 +1818,26 @@
         <v>72</v>
       </c>
       <c r="D54" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D55" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>172</v>
@@ -1848,13 +1845,13 @@
       <c r="C56" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>138</v>
+      <c r="D56" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>172</v>
@@ -1863,32 +1860,32 @@
         <v>75</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1896,13 +1893,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1910,77 +1907,77 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="D61" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>143</v>
+        <v>79</v>
+      </c>
+      <c r="D62" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>125</v>
+        <v>81</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="4">
-        <v>820</v>
+        <v>145</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>174</v>
@@ -1989,82 +1986,82 @@
         <v>83</v>
       </c>
       <c r="D66" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>147</v>
+        <v>83</v>
+      </c>
+      <c r="D67" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="4">
-        <v>553</v>
+        <v>85</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="D69" s="4">
-        <v>433</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="D70" s="4">
-        <v>72</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D71" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>172</v>
@@ -2073,12 +2070,12 @@
         <v>90</v>
       </c>
       <c r="D72" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>172</v>
@@ -2086,27 +2083,27 @@
       <c r="C73" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>150</v>
+      <c r="D73" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="4">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>172</v>
@@ -2115,26 +2112,26 @@
         <v>92</v>
       </c>
       <c r="D75" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D76" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>172</v>
@@ -2143,152 +2140,152 @@
         <v>94</v>
       </c>
       <c r="D77" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>125</v>
+        <v>94</v>
+      </c>
+      <c r="D78" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>125</v>
+        <v>97</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="4">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D82" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D83" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="D84" s="4">
-        <v>747</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D85" s="4">
-        <v>449</v>
+        <v>747</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="D86" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D87" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>172</v>
@@ -2297,26 +2294,26 @@
         <v>105</v>
       </c>
       <c r="D88" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D89" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>177</v>
@@ -2325,12 +2322,12 @@
         <v>108</v>
       </c>
       <c r="D90" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>177</v>
@@ -2339,46 +2336,46 @@
         <v>108</v>
       </c>
       <c r="D91" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D92" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
+      </c>
+      <c r="D93" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>125</v>
@@ -2386,70 +2383,79 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D96" s="4">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D97" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
-      <sortCondition ref="A1:A76"/>
+  <autoFilter ref="A1:D98" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D77">
+      <sortCondition ref="A1:A77"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D44 A46:D97">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D98">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:D45">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D61:D97 D46:D58 D1:D44" numberStoredAsText="1"/>
+    <ignoredError sqref="D62:D98 D47:D59 D5:D45 D1:D3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D938126F-CECC-4480-AC0B-232219944EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E403FD-1AFF-4CE9-A6B1-DBC8C870ED6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1095,30 +1095,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2439,8 +2439,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D98" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D77">
-      <sortCondition ref="A1:A77"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
+      <sortCondition ref="A1:A98"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2455,7 +2455,7 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D62:D98 D47:D59 D5:D45 D1:D3" numberStoredAsText="1"/>
+    <ignoredError sqref="D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E403FD-1AFF-4CE9-A6B1-DBC8C870ED6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9E5D3C-C2C2-4BFF-983E-B576EF7A5ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="194">
   <si>
     <t>Complemento</t>
   </si>
@@ -615,6 +615,12 @@
   </si>
   <si>
     <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>TAPETE - UNICA</t>
+  </si>
+  <si>
+    <t>S110059</t>
   </si>
 </sst>
 </file>
@@ -719,7 +725,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1051,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,41 +2370,41 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="D93" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
+      </c>
+      <c r="D94" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>125</v>
@@ -2397,60 +2412,79 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D97" s="4">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D98" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
-      <sortCondition ref="A1:A98"/>
+  <autoFilter ref="A1:D99" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D99">
+      <sortCondition ref="A1:A99"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D98">
+  <conditionalFormatting sqref="A2:D92 A94:D99">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:D93">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A93))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9E5D3C-C2C2-4BFF-983E-B576EF7A5ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CFD83E-58B4-456C-842B-29BB977092B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="193">
   <si>
     <t>Complemento</t>
   </si>
@@ -296,9 +296,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -479,12 +476,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
   </si>
   <si>
@@ -621,6 +612,12 @@
   </si>
   <si>
     <t>S110059</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -1068,9 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD93"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1085,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1096,13 +1091,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1113,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1127,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1138,30 +1133,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -1180,10 +1175,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1194,10 +1189,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1211,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1225,7 +1220,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1239,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1253,7 +1248,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1267,7 +1262,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1278,16 +1273,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1295,7 +1290,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1309,7 +1304,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1320,10 +1315,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1337,7 +1332,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1351,7 +1346,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1365,7 +1360,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
@@ -1376,10 +1371,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1390,10 +1385,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
@@ -1407,7 +1402,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1418,13 +1413,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1435,7 +1430,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>33</v>
@@ -1446,16 +1441,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1463,7 +1458,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>35</v>
@@ -1477,7 +1472,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>37</v>
@@ -1488,16 +1483,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1505,13 +1500,13 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,7 +1514,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>41</v>
@@ -1533,7 +1528,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>43</v>
@@ -1547,7 +1542,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>45</v>
@@ -1561,7 +1556,7 @@
         <v>46</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>45</v>
@@ -1575,7 +1570,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>45</v>
@@ -1589,7 +1584,7 @@
         <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>45</v>
@@ -1600,83 +1595,83 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="D39" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>125</v>
+        <v>50</v>
+      </c>
+      <c r="D41" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1684,27 +1679,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45" s="4">
         <v>80</v>
@@ -1712,27 +1707,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1740,41 +1735,41 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D48" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D49" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" s="4">
         <v>103</v>
@@ -1782,139 +1777,139 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D53" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D54" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D55" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>138</v>
+      <c r="D57" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1922,13 +1917,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1936,111 +1931,111 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D62" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>143</v>
+        <v>79</v>
+      </c>
+      <c r="D63" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>125</v>
+        <v>81</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="4">
-        <v>820</v>
+        <v>144</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D67" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>147</v>
+        <v>83</v>
+      </c>
+      <c r="D68" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D69" s="4">
         <v>553</v>
@@ -2048,13 +2043,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D70" s="4">
         <v>433</v>
@@ -2062,13 +2057,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D71" s="4">
         <v>72</v>
@@ -2076,13 +2071,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2090,13 +2085,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D73" s="4">
         <v>87</v>
@@ -2104,27 +2099,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D75" s="4">
         <v>55</v>
@@ -2132,13 +2127,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="4">
         <v>54</v>
@@ -2146,13 +2141,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D77" s="4">
         <v>994</v>
@@ -2160,13 +2155,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D78" s="4">
         <v>695</v>
@@ -2174,27 +2169,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2202,27 +2197,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2230,13 +2225,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D83" s="4">
         <v>53</v>
@@ -2244,13 +2239,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D84" s="4">
         <v>107</v>
@@ -2258,13 +2253,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D85" s="4">
         <v>747</v>
@@ -2272,13 +2267,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D86" s="4">
         <v>449</v>
@@ -2286,13 +2281,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D87" s="4">
         <v>170</v>
@@ -2300,13 +2295,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D88" s="4">
         <v>163</v>
@@ -2314,13 +2309,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" s="4">
         <v>799</v>
@@ -2328,13 +2323,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D90" s="4">
         <v>1127</v>
@@ -2342,13 +2337,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D91" s="4">
         <v>569</v>
@@ -2356,13 +2351,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D92" s="4">
         <v>762</v>
@@ -2370,13 +2365,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2384,13 +2379,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D94" s="4">
         <v>211</v>
@@ -2398,55 +2393,55 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2454,13 +2449,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2473,18 +2468,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D92 A94:D99">
+  <conditionalFormatting sqref="A2:D67 A69:D99">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:D93">
+  <conditionalFormatting sqref="A68:D68">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A93))&gt;0</formula>
+      <formula>LEN(TRIM(A68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CFD83E-58B4-456C-842B-29BB977092B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794F3293-6209-4492-92AE-9A76B01A9B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1080,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1091,13 +1093,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1108,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1122,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1133,30 +1135,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -1175,10 +1177,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1189,10 +1191,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1206,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1220,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1234,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1248,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1262,7 +1264,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1273,16 +1275,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,7 +1292,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1304,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1315,10 +1317,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1332,7 +1334,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1346,7 +1348,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1360,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
@@ -1371,10 +1373,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1385,10 +1387,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
@@ -1402,7 +1404,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1413,13 +1415,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1430,7 +1432,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>33</v>
@@ -1441,16 +1443,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,7 +1460,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>35</v>
@@ -1472,7 +1474,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>37</v>
@@ -1483,16 +1485,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1500,38 +1502,38 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1539,13 +1541,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D34" s="4">
         <v>899</v>
@@ -1553,13 +1555,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="4">
         <v>896</v>
@@ -1567,13 +1569,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="4">
         <v>900</v>
@@ -1581,13 +1583,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="4">
         <v>898</v>
@@ -1595,27 +1597,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1623,13 +1625,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D40" s="4">
         <v>166</v>
@@ -1637,13 +1639,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4">
         <v>167</v>
@@ -1651,27 +1653,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1679,13 +1681,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1693,13 +1695,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D45" s="4">
         <v>80</v>
@@ -1707,13 +1709,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1721,13 +1723,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1735,13 +1737,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1749,13 +1751,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D49" s="4">
         <v>40</v>
@@ -1763,13 +1765,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D50" s="4">
         <v>103</v>
@@ -1777,13 +1779,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D51" s="4">
         <v>103</v>
@@ -1791,13 +1793,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="4">
         <v>910</v>
@@ -1805,13 +1807,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1819,13 +1821,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D54" s="4">
         <v>745</v>
@@ -1833,13 +1835,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D55" s="4">
         <v>33</v>
@@ -1847,13 +1849,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="4">
         <v>32</v>
@@ -1861,13 +1863,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -1875,41 +1877,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1917,13 +1919,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1931,13 +1933,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1945,13 +1947,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D63" s="4">
         <v>211</v>
@@ -1959,27 +1961,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1987,27 +1989,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D67" s="4">
         <v>820</v>
@@ -2015,13 +2017,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="4">
         <v>819</v>
@@ -2029,13 +2031,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D69" s="4">
         <v>553</v>
@@ -2043,13 +2045,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D70" s="4">
         <v>433</v>
@@ -2057,13 +2059,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D71" s="4">
         <v>72</v>
@@ -2071,13 +2073,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2085,13 +2087,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D73" s="4">
         <v>87</v>
@@ -2099,27 +2101,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="4">
         <v>55</v>
@@ -2127,13 +2129,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76" s="4">
         <v>54</v>
@@ -2141,13 +2143,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D77" s="4">
         <v>994</v>
@@ -2155,13 +2157,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D78" s="4">
         <v>695</v>
@@ -2169,27 +2171,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2197,27 +2199,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D81" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2225,13 +2227,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D83" s="4">
         <v>53</v>
@@ -2239,13 +2241,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D84" s="4">
         <v>107</v>
@@ -2253,13 +2255,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D85" s="4">
         <v>747</v>
@@ -2267,13 +2269,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D86" s="4">
         <v>449</v>
@@ -2281,13 +2283,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D87" s="4">
         <v>170</v>
@@ -2295,13 +2297,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" s="4">
         <v>163</v>
@@ -2309,13 +2311,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D89" s="4">
         <v>799</v>
@@ -2323,13 +2325,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D90" s="4">
         <v>1127</v>
@@ -2337,13 +2339,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D91" s="4">
         <v>569</v>
@@ -2351,13 +2353,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D92" s="4">
         <v>762</v>
@@ -2365,13 +2367,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2379,13 +2381,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D94" s="4">
         <v>211</v>
@@ -2393,55 +2395,55 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2449,13 +2451,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2468,18 +2470,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D67 A69:D99">
+  <conditionalFormatting sqref="A2:D31 A33:D99">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:D68">
+  <conditionalFormatting sqref="A32:D32">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A68))&gt;0</formula>
+      <formula>LEN(TRIM(A32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794F3293-6209-4492-92AE-9A76B01A9B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAE6078-5CCA-4648-9154-E9C8F7DBDEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -278,9 +278,6 @@
     <t>S040043</t>
   </si>
   <si>
-    <t>PANO DE CHAO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010037</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1110,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1124,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1135,30 +1135,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1222,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1236,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1250,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1264,7 +1264,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1275,16 +1275,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,7 +1292,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1306,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1334,7 +1334,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1348,7 +1348,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
@@ -1404,7 +1404,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1415,13 +1415,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>33</v>
@@ -1443,16 +1443,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>35</v>
@@ -1474,7 +1474,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>37</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,21 +1502,21 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>40</v>
@@ -1530,7 +1530,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>42</v>
@@ -1544,7 +1544,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>44</v>
@@ -1558,7 +1558,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>44</v>
@@ -1572,7 +1572,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>44</v>
@@ -1586,7 +1586,7 @@
         <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>44</v>
@@ -1597,27 +1597,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1628,7 +1628,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>49</v>
@@ -1642,7 +1642,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -1653,27 +1653,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>52</v>
@@ -1698,7 +1698,7 @@
         <v>53</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>54</v>
@@ -1712,7 +1712,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>56</v>
@@ -1723,13 +1723,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1740,7 +1740,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>58</v>
@@ -1754,7 +1754,7 @@
         <v>59</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>60</v>
@@ -1768,7 +1768,7 @@
         <v>61</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>62</v>
@@ -1782,7 +1782,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>64</v>
@@ -1796,7 +1796,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>64</v>
@@ -1810,7 +1810,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>67</v>
@@ -1824,7 +1824,7 @@
         <v>68</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>69</v>
@@ -1838,7 +1838,7 @@
         <v>70</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>71</v>
@@ -1852,7 +1852,7 @@
         <v>72</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>71</v>
@@ -1866,7 +1866,7 @@
         <v>73</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>74</v>
@@ -1877,30 +1877,30 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
         <v>75</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>76</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1950,7 +1950,7 @@
         <v>77</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>78</v>
@@ -1961,55 +1961,55 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D67" s="4">
         <v>820</v>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" s="4">
         <v>819</v>
@@ -2031,13 +2031,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D69" s="4">
         <v>553</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D70" s="4">
         <v>433</v>
@@ -2059,13 +2059,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71" s="4">
         <v>72</v>
@@ -2073,13 +2073,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2087,13 +2087,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D73" s="4">
         <v>87</v>
@@ -2101,27 +2101,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D75" s="4">
         <v>55</v>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D76" s="4">
         <v>54</v>
@@ -2143,13 +2143,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="4">
         <v>994</v>
@@ -2157,13 +2157,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D78" s="4">
         <v>695</v>
@@ -2171,27 +2171,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2199,27 +2199,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D81" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2227,13 +2227,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D83" s="4">
         <v>53</v>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D84" s="4">
         <v>107</v>
@@ -2255,13 +2255,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D85" s="4">
         <v>747</v>
@@ -2269,13 +2269,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D86" s="4">
         <v>449</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D87" s="4">
         <v>170</v>
@@ -2297,13 +2297,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D88" s="4">
         <v>163</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" s="4">
         <v>799</v>
@@ -2325,13 +2325,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D90" s="4">
         <v>1127</v>
@@ -2339,13 +2339,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D91" s="4">
         <v>569</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D92" s="4">
         <v>762</v>
@@ -2367,13 +2367,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2381,13 +2381,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D94" s="4">
         <v>211</v>
@@ -2395,55 +2395,55 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2451,13 +2451,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2470,18 +2470,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D31 A33:D99">
+  <conditionalFormatting sqref="A2:D64 A66:D99">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:D32">
+  <conditionalFormatting sqref="A65:D65">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A32))&gt;0</formula>
+      <formula>LEN(TRIM(A65))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAE6078-5CCA-4648-9154-E9C8F7DBDEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334C7448-8388-42B7-8A5F-528A2F1CD3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="190">
   <si>
     <t>Complemento</t>
   </si>
@@ -137,18 +137,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -230,15 +218,9 @@
     <t>S010026</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - 500ML - 500ML</t>
-  </si>
-  <si>
     <t>S010027</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - CIF</t>
-  </si>
-  <si>
     <t>LIVRO ATA - UNICA - UNICA</t>
   </si>
   <si>
@@ -416,18 +398,9 @@
     <t>DESINFETANTE LIQUIDO - 1000ML - 1000ML</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
@@ -618,6 +591,24 @@
   </si>
   <si>
     <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:D65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1093,13 +1084,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1110,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1124,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1135,30 +1126,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1166,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -1177,10 +1168,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1191,10 +1182,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1208,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1222,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1236,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1250,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1264,7 +1255,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1275,16 +1266,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,7 +1283,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1306,7 +1297,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1317,10 +1308,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1334,7 +1325,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1348,7 +1339,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1362,7 +1353,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
@@ -1373,10 +1364,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1387,10 +1378,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
@@ -1404,7 +1395,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1415,69 +1406,69 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1485,41 +1476,41 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D32" s="4">
         <v>1159</v>
@@ -1527,13 +1518,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1541,13 +1532,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>899</v>
@@ -1555,13 +1546,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D35" s="4">
         <v>896</v>
@@ -1569,13 +1560,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D36" s="4">
         <v>900</v>
@@ -1583,13 +1574,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D37" s="4">
         <v>898</v>
@@ -1597,27 +1588,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1625,13 +1616,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D40" s="4">
         <v>166</v>
@@ -1639,13 +1630,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D41" s="4">
         <v>167</v>
@@ -1653,27 +1644,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1681,13 +1672,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1695,13 +1686,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D45" s="4">
         <v>80</v>
@@ -1709,13 +1700,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1723,13 +1714,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1737,13 +1728,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1751,13 +1742,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D49" s="4">
         <v>40</v>
@@ -1765,13 +1756,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D50" s="4">
         <v>103</v>
@@ -1779,13 +1770,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D51" s="4">
         <v>103</v>
@@ -1793,13 +1784,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D52" s="4">
         <v>910</v>
@@ -1807,13 +1798,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1821,13 +1812,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D54" s="4">
         <v>745</v>
@@ -1835,13 +1826,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D55" s="4">
         <v>33</v>
@@ -1849,13 +1840,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D56" s="4">
         <v>32</v>
@@ -1863,13 +1854,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -1877,41 +1868,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1919,13 +1910,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1933,13 +1924,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1947,13 +1938,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D63" s="4">
         <v>211</v>
@@ -1961,27 +1952,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D65" s="4">
         <v>1166</v>
@@ -1989,27 +1980,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D67" s="4">
         <v>820</v>
@@ -2017,13 +2008,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D68" s="4">
         <v>819</v>
@@ -2031,13 +2022,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D69" s="4">
         <v>553</v>
@@ -2045,13 +2036,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D70" s="4">
         <v>433</v>
@@ -2059,13 +2050,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D71" s="4">
         <v>72</v>
@@ -2073,13 +2064,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2087,13 +2078,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D73" s="4">
         <v>87</v>
@@ -2101,27 +2092,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D75" s="4">
         <v>55</v>
@@ -2129,13 +2120,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D76" s="4">
         <v>54</v>
@@ -2143,13 +2134,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D77" s="4">
         <v>994</v>
@@ -2157,13 +2148,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D78" s="4">
         <v>695</v>
@@ -2171,27 +2162,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2199,27 +2190,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2227,13 +2218,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D83" s="4">
         <v>53</v>
@@ -2241,13 +2232,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D84" s="4">
         <v>107</v>
@@ -2255,13 +2246,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D85" s="4">
         <v>747</v>
@@ -2269,13 +2260,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D86" s="4">
         <v>449</v>
@@ -2283,13 +2274,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D87" s="4">
         <v>170</v>
@@ -2297,13 +2288,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D88" s="4">
         <v>163</v>
@@ -2311,13 +2302,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D89" s="4">
         <v>799</v>
@@ -2325,13 +2316,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D90" s="4">
         <v>1127</v>
@@ -2339,13 +2330,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D91" s="4">
         <v>569</v>
@@ -2353,13 +2344,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D92" s="4">
         <v>762</v>
@@ -2367,13 +2358,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2381,13 +2372,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D94" s="4">
         <v>211</v>
@@ -2395,55 +2386,55 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2451,13 +2442,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2470,18 +2461,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D64 A66:D99">
+  <conditionalFormatting sqref="A2:D50 A53:D99 B51:D52">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:D65">
+  <conditionalFormatting sqref="A51:A52">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A65))&gt;0</formula>
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334C7448-8388-42B7-8A5F-528A2F1CD3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDD2140-3B1E-4B6B-8783-4841EC5C4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="190">
   <si>
     <t>Complemento</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -233,24 +227,15 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010030</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -437,9 +422,6 @@
     <t>591</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -609,6 +591,24 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,52 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1056,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1084,13 +1129,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1098,13 +1143,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="4">
         <v>105</v>
@@ -1112,13 +1157,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="4">
         <v>103</v>
@@ -1126,41 +1171,41 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D7" s="4">
         <v>809</v>
@@ -1168,13 +1213,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4">
         <v>1046</v>
@@ -1182,13 +1227,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
         <v>1045</v>
@@ -1196,13 +1241,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D10" s="4">
         <v>103</v>
@@ -1210,13 +1255,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
         <v>33</v>
@@ -1224,13 +1269,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D12" s="4">
         <v>31</v>
@@ -1238,13 +1283,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D13" s="4">
         <v>20</v>
@@ -1252,13 +1297,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1266,27 +1311,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -1294,13 +1339,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -1308,13 +1353,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
         <v>4</v>
@@ -1322,13 +1367,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1336,13 +1381,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1350,13 +1395,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D21" s="4">
         <v>52</v>
@@ -1364,13 +1409,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="4">
         <v>109</v>
@@ -1378,13 +1423,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="4">
         <v>105</v>
@@ -1392,13 +1437,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D24" s="4">
         <v>103</v>
@@ -1406,13 +1451,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D25" s="4">
         <v>1176</v>
@@ -1420,13 +1465,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D26" s="4">
         <v>1177</v>
@@ -1434,13 +1479,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D27" s="4">
         <v>1178</v>
@@ -1448,13 +1493,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D28" s="4">
         <v>1179</v>
@@ -1462,13 +1507,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1476,41 +1521,41 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="4">
         <v>1159</v>
@@ -1518,13 +1563,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1532,13 +1577,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>899</v>
@@ -1546,13 +1591,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4">
         <v>896</v>
@@ -1560,13 +1605,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="4">
         <v>900</v>
@@ -1574,13 +1619,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="4">
         <v>898</v>
@@ -1588,27 +1633,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1616,13 +1661,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D40" s="4">
         <v>166</v>
@@ -1630,13 +1675,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="4">
         <v>167</v>
@@ -1644,27 +1689,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1672,27 +1717,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D45" s="4">
         <v>80</v>
@@ -1700,13 +1745,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1714,13 +1759,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1728,13 +1773,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1742,13 +1787,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" s="4">
         <v>40</v>
@@ -1756,13 +1801,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D50" s="4">
         <v>103</v>
@@ -1770,13 +1815,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D51" s="4">
         <v>103</v>
@@ -1784,13 +1829,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4">
         <v>910</v>
@@ -1798,13 +1843,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1812,13 +1857,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D54" s="4">
         <v>745</v>
@@ -1826,13 +1871,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D55" s="4">
         <v>33</v>
@@ -1840,13 +1885,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D56" s="4">
         <v>32</v>
@@ -1854,13 +1899,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -1868,41 +1913,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1910,13 +1955,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1924,13 +1969,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1938,13 +1983,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D63" s="4">
         <v>211</v>
@@ -1952,27 +1997,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D65" s="4">
         <v>1166</v>
@@ -1980,27 +2025,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D67" s="4">
         <v>820</v>
@@ -2008,13 +2053,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D68" s="4">
         <v>819</v>
@@ -2022,13 +2067,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D69" s="4">
         <v>553</v>
@@ -2036,13 +2081,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D70" s="4">
         <v>433</v>
@@ -2050,13 +2095,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D71" s="4">
         <v>72</v>
@@ -2064,13 +2109,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2078,13 +2123,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D73" s="4">
         <v>87</v>
@@ -2092,27 +2137,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D75" s="4">
         <v>55</v>
@@ -2120,13 +2165,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D76" s="4">
         <v>54</v>
@@ -2134,13 +2179,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D77" s="4">
         <v>994</v>
@@ -2148,13 +2193,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D78" s="4">
         <v>695</v>
@@ -2162,27 +2207,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2190,27 +2235,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2218,13 +2263,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D83" s="4">
         <v>53</v>
@@ -2232,13 +2277,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D84" s="4">
         <v>107</v>
@@ -2246,13 +2291,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D85" s="4">
         <v>747</v>
@@ -2260,13 +2305,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D86" s="4">
         <v>449</v>
@@ -2274,13 +2319,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D87" s="4">
         <v>170</v>
@@ -2288,13 +2333,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D88" s="4">
         <v>163</v>
@@ -2302,13 +2347,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D89" s="4">
         <v>799</v>
@@ -2316,13 +2361,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D90" s="4">
         <v>1127</v>
@@ -2330,13 +2375,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D91" s="4">
         <v>569</v>
@@ -2344,13 +2389,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D92" s="4">
         <v>762</v>
@@ -2358,13 +2403,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2372,13 +2417,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D94" s="4">
         <v>211</v>
@@ -2386,55 +2431,55 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2442,13 +2487,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2461,18 +2506,43 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D50 A53:D99 B51:D52">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D2 A4:D43 A45:D54 A57:D59 A61:D65 A67:D99">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A52">
+  <conditionalFormatting sqref="A3:D3">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:D44">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A44))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:D56">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A55))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:D60">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B60))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A60))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:D66">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
+      <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDD2140-3B1E-4B6B-8783-4841EC5C4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6608372-61DD-4D14-A667-02E4A2284AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="188">
   <si>
     <t>Complemento</t>
   </si>
@@ -533,24 +533,6 @@
     <t>S020008</t>
   </si>
   <si>
-    <t>MOP PO REFIL - UNICA</t>
-  </si>
-  <si>
-    <t>S010076</t>
-  </si>
-  <si>
-    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010034</t>
-  </si>
-  <si>
-    <t>KIT MOP UMIDO - UNICA</t>
-  </si>
-  <si>
-    <t>S010086</t>
-  </si>
-  <si>
     <t>S010002</t>
   </si>
   <si>
@@ -609,6 +591,18 @@
   </si>
   <si>
     <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>MOP - KIT UMIDO</t>
+  </si>
+  <si>
+    <t>S010075</t>
+  </si>
+  <si>
+    <t>MOP - REFIL PO</t>
+  </si>
+  <si>
+    <t>MOP - REFIL UMIDO</t>
   </si>
 </sst>
 </file>
@@ -713,52 +707,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1101,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:D66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,13 +1078,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1143,7 +1092,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>152</v>
@@ -1451,7 +1400,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>152</v>
@@ -1465,7 +1414,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>152</v>
@@ -1479,7 +1428,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>152</v>
@@ -1493,7 +1442,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>152</v>
@@ -1549,7 +1498,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>152</v>
@@ -1647,13 +1596,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1717,7 +1666,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>152</v>
@@ -1759,13 +1708,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1773,41 +1722,41 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D49" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50" s="4">
         <v>103</v>
@@ -1815,7 +1764,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>152</v>
@@ -1824,54 +1773,54 @@
         <v>57</v>
       </c>
       <c r="D51" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D52" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D53" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D54" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>152</v>
@@ -1880,26 +1829,26 @@
         <v>62</v>
       </c>
       <c r="D55" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D56" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>152</v>
@@ -1907,13 +1856,13 @@
       <c r="C57" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="4">
-        <v>2</v>
+      <c r="D57" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>152</v>
@@ -1922,63 +1871,63 @@
         <v>64</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>123</v>
+        <v>65</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="D62" s="4">
-        <v>1</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2011,7 +1960,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>152</v>
@@ -2025,7 +1974,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>152</v>
@@ -2403,13 +2352,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2506,43 +2455,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="7" priority="19">
+    <cfRule type="expression" dxfId="2" priority="20">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 A4:D43 A45:D54 A57:D59 A61:D65 A67:D99">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+  <conditionalFormatting sqref="A2:D59 A63:D99">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D3">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:D44">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A44))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:D56">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A55))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:D60">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B60))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A60:D62">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A60))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D66">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6608372-61DD-4D14-A667-02E4A2284AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C680FDB-8FEA-4613-BD55-0B2E26EC66B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="189">
   <si>
     <t>Complemento</t>
   </si>
@@ -227,9 +227,6 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>S010030</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
@@ -452,9 +449,6 @@
     <t>S020118</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/10UN - 30LT</t>
-  </si>
-  <si>
     <t>S010057</t>
   </si>
   <si>
@@ -581,12 +575,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
@@ -603,6 +591,21 @@
   </si>
   <si>
     <t>MOP - REFIL UMIDO</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/10UN - 30L</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080024</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1078,13 +1081,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1092,10 +1095,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1109,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1120,30 +1123,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1151,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -1162,10 +1165,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1176,10 +1179,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1193,7 +1196,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1207,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -1221,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
@@ -1235,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1249,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1260,16 +1263,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1277,7 +1280,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
@@ -1291,7 +1294,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -1302,10 +1305,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1319,7 +1322,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1333,7 +1336,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1347,7 +1350,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1358,10 +1361,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
@@ -1372,10 +1375,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1389,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -1400,13 +1403,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="4">
         <v>1176</v>
@@ -1414,13 +1417,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="4">
         <v>1177</v>
@@ -1428,13 +1431,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="4">
         <v>1178</v>
@@ -1442,13 +1445,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" s="4">
         <v>1179</v>
@@ -1459,7 +1462,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -1470,16 +1473,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,27 +1490,27 @@
         <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,7 +1518,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
@@ -1529,7 +1532,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>39</v>
@@ -1543,7 +1546,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>39</v>
@@ -1557,7 +1560,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
@@ -1571,7 +1574,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
@@ -1582,27 +1585,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1613,7 +1616,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>44</v>
@@ -1627,7 +1630,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>44</v>
@@ -1638,27 +1641,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1666,10 +1669,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
@@ -1683,7 +1686,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1697,7 +1700,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
@@ -1711,7 +1714,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>52</v>
@@ -1725,7 +1728,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
@@ -1739,7 +1742,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>56</v>
@@ -1750,10 +1753,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>57</v>
@@ -1764,10 +1767,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
@@ -1781,7 +1784,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
@@ -1795,7 +1798,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>61</v>
@@ -1806,13 +1809,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1820,653 +1823,667 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="D55" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>121</v>
+        <v>63</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="D60" s="4">
-        <v>1172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D61" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D62" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="D63" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>126</v>
+        <v>66</v>
+      </c>
+      <c r="D64" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1166</v>
+        <v>124</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D66" s="4">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="D67" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D68" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D69" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="D70" s="4">
-        <v>433</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="D71" s="4">
-        <v>72</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D72" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D73" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>130</v>
+        <v>75</v>
+      </c>
+      <c r="D74" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="4">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D77" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D78" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
+      </c>
+      <c r="D79" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>111</v>
+        <v>82</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D83" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D84" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D85" s="4">
-        <v>747</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D86" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="D87" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D88" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D89" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D90" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D92" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D93" s="4">
-        <v>1</v>
+        <v>762</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D94" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
+      </c>
+      <c r="D95" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D98" s="4">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D99" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D99">
-      <sortCondition ref="A1:A99"/>
+  <autoFilter ref="A1:D100" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D100">
+      <sortCondition ref="A1:A100"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D59 A63:D99">
+  <conditionalFormatting sqref="A2:D53 A57:D100">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:D62">
+  <conditionalFormatting sqref="A54:D56">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A60))&gt;0</formula>
+      <formula>LEN(TRIM(A54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C680FDB-8FEA-4613-BD55-0B2E26EC66B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A379F410-C144-4AD7-80C4-1EB646EF0B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="187">
   <si>
     <t>Complemento</t>
   </si>
@@ -519,12 +519,6 @@
   </si>
   <si>
     <t>S020048</t>
-  </si>
-  <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
   </si>
   <si>
     <t>S010002</t>
@@ -710,16 +704,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1051,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:D56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,13 +1066,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1095,7 +1080,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>150</v>
@@ -1403,7 +1388,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>150</v>
@@ -1417,7 +1402,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>150</v>
@@ -1431,7 +1416,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>150</v>
@@ -1445,7 +1430,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>150</v>
@@ -1501,7 +1486,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>150</v>
@@ -1599,13 +1584,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1669,7 +1654,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>150</v>
@@ -1753,7 +1738,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>150</v>
@@ -1767,7 +1752,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>150</v>
@@ -1809,13 +1794,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1823,13 +1808,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D55" s="4">
         <v>33</v>
@@ -1837,13 +1822,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D56" s="4">
         <v>32</v>
@@ -1893,7 +1878,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>151</v>
@@ -1907,13 +1892,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="4">
         <v>1172</v>
@@ -1921,13 +1906,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="4">
         <v>1173</v>
@@ -1935,13 +1920,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="4">
         <v>1174</v>
@@ -1977,7 +1962,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>150</v>
@@ -1991,7 +1976,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>150</v>
@@ -2257,7 +2242,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>152</v>
@@ -2369,13 +2354,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2411,79 +2396,60 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>102</v>
+        <v>144</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D100" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D100">
-      <sortCondition ref="A1:A100"/>
+  <autoFilter ref="A1:D99" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D99">
+      <sortCondition ref="A1:A99"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D53 A57:D100">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D99">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:D56">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A379F410-C144-4AD7-80C4-1EB646EF0B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C969EA-7188-4713-8863-B7202C9A889B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -233,9 +233,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -569,9 +566,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -600,6 +594,12 @@
   </si>
   <si>
     <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1038,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1066,13 +1075,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1080,10 +1089,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1097,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1108,30 +1117,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -1150,10 +1159,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1164,10 +1173,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1181,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1195,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -1209,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
@@ -1223,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1237,7 +1246,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1248,16 +1257,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1265,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
@@ -1279,7 +1288,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -1290,10 +1299,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1307,7 +1316,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1321,7 +1330,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1335,7 +1344,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1346,10 +1355,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
@@ -1360,10 +1369,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1377,7 +1386,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -1388,13 +1397,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="4">
         <v>1176</v>
@@ -1402,13 +1411,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="4">
         <v>1177</v>
@@ -1416,13 +1425,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="4">
         <v>1178</v>
@@ -1430,13 +1439,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" s="4">
         <v>1179</v>
@@ -1447,7 +1456,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -1458,16 +1467,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,21 +1484,21 @@
         <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
@@ -1503,7 +1512,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
@@ -1517,7 +1526,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>39</v>
@@ -1531,7 +1540,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>39</v>
@@ -1545,7 +1554,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
@@ -1559,7 +1568,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
@@ -1570,27 +1579,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1601,7 +1610,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>44</v>
@@ -1615,7 +1624,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>44</v>
@@ -1626,27 +1635,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1654,10 +1663,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
@@ -1671,7 +1680,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1685,7 +1694,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
@@ -1699,7 +1708,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>52</v>
@@ -1713,7 +1722,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
@@ -1727,7 +1736,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>56</v>
@@ -1738,10 +1747,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>57</v>
@@ -1752,10 +1761,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
@@ -1769,7 +1778,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
@@ -1783,7 +1792,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>61</v>
@@ -1794,13 +1803,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1808,13 +1817,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D55" s="4">
         <v>33</v>
@@ -1822,13 +1831,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D56" s="4">
         <v>32</v>
@@ -1839,7 +1848,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>63</v>
@@ -1850,55 +1859,55 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="4">
         <v>1172</v>
@@ -1906,13 +1915,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="4">
         <v>1173</v>
@@ -1920,13 +1929,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D63" s="4">
         <v>1174</v>
@@ -1934,13 +1943,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D64" s="4">
         <v>211</v>
@@ -1948,41 +1957,41 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="4">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D67" s="4">
         <v>1167</v>
@@ -1990,13 +1999,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D68" s="4">
         <v>820</v>
@@ -2004,13 +2013,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="4">
         <v>819</v>
@@ -2018,13 +2027,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D70" s="4">
         <v>553</v>
@@ -2032,13 +2041,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D71" s="4">
         <v>433</v>
@@ -2046,13 +2055,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" s="4">
         <v>72</v>
@@ -2060,13 +2069,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D73" s="4">
         <v>86</v>
@@ -2074,13 +2083,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="4">
         <v>87</v>
@@ -2088,27 +2097,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="4">
         <v>55</v>
@@ -2116,13 +2125,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D77" s="4">
         <v>54</v>
@@ -2130,13 +2139,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" s="4">
         <v>994</v>
@@ -2144,13 +2153,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D79" s="4">
         <v>695</v>
@@ -2158,27 +2167,27 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="D80" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2186,27 +2195,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2214,13 +2223,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D84" s="4">
         <v>53</v>
@@ -2228,13 +2237,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D85" s="4">
         <v>107</v>
@@ -2242,13 +2251,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" s="4">
         <v>437</v>
@@ -2256,13 +2265,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D87" s="4">
         <v>449</v>
@@ -2270,13 +2279,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D88" s="4">
         <v>170</v>
@@ -2284,13 +2293,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D89" s="4">
         <v>163</v>
@@ -2298,13 +2307,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90" s="4">
         <v>799</v>
@@ -2312,13 +2321,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D91" s="4">
         <v>1127</v>
@@ -2326,13 +2335,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D92" s="4">
         <v>569</v>
@@ -2340,13 +2349,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" s="4">
         <v>762</v>
@@ -2354,13 +2363,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2368,13 +2377,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D95" s="4">
         <v>211</v>
@@ -2382,41 +2391,41 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2424,13 +2433,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2443,13 +2452,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="23">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D99">
+  <conditionalFormatting sqref="A2:D59 A61:D99">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:D60">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C969EA-7188-4713-8863-B7202C9A889B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB116E4E-2F64-4D5A-A37C-F25B284B7717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -704,16 +704,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1047,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,7 +2041,7 @@
         <v>145</v>
       </c>
       <c r="D71" s="4">
-        <v>433</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2452,18 +2443,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="24">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D59 A61:D99">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D99">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:D60">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB116E4E-2F64-4D5A-A37C-F25B284B7717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB8CCAC-C064-40EB-86CB-805CF30897B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -473,9 +473,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO PC C/4UND - PACOTE - PACOTE</t>
-  </si>
-  <si>
     <t>S010040</t>
   </si>
   <si>
@@ -600,6 +597,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO PC C/4UND - PACOTE C/ 4</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1039,7 +1048,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1066,13 +1075,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1080,10 +1089,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1097,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1111,7 +1120,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>100</v>
@@ -1125,7 +1134,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>103</v>
@@ -1139,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -1153,7 +1162,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1167,7 +1176,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1181,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1195,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -1209,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
@@ -1223,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1237,7 +1246,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1251,7 +1260,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>108</v>
@@ -1265,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
@@ -1279,7 +1288,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -1290,10 +1299,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1307,7 +1316,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1321,7 +1330,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1335,7 +1344,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1349,7 +1358,7 @@
         <v>110</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
@@ -1363,7 +1372,7 @@
         <v>111</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1377,7 +1386,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -1388,10 +1397,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>112</v>
@@ -1402,10 +1411,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>112</v>
@@ -1416,10 +1425,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>112</v>
@@ -1430,10 +1439,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>112</v>
@@ -1447,7 +1456,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -1461,7 +1470,7 @@
         <v>113</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>114</v>
@@ -1475,7 +1484,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
@@ -1486,10 +1495,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
@@ -1503,7 +1512,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
@@ -1517,7 +1526,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>39</v>
@@ -1531,7 +1540,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>39</v>
@@ -1545,7 +1554,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
@@ -1559,7 +1568,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
@@ -1570,13 +1579,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>109</v>
@@ -1584,13 +1593,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1601,7 +1610,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>44</v>
@@ -1615,7 +1624,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>44</v>
@@ -1629,7 +1638,7 @@
         <v>116</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>117</v>
@@ -1640,13 +1649,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1654,10 +1663,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
@@ -1671,7 +1680,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1685,7 +1694,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
@@ -1699,7 +1708,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>52</v>
@@ -1713,7 +1722,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
@@ -1727,7 +1736,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>56</v>
@@ -1738,10 +1747,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>57</v>
@@ -1752,10 +1761,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
@@ -1769,7 +1778,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
@@ -1783,7 +1792,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>61</v>
@@ -1794,13 +1803,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1808,13 +1817,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D55" s="4">
         <v>33</v>
@@ -1822,13 +1831,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D56" s="4">
         <v>32</v>
@@ -1839,7 +1848,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>63</v>
@@ -1853,7 +1862,7 @@
         <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>63</v>
@@ -1867,7 +1876,7 @@
         <v>120</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>63</v>
@@ -1878,13 +1887,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D60" s="4">
         <v>1181</v>
@@ -1892,13 +1901,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D61" s="4">
         <v>1172</v>
@@ -1906,13 +1915,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="4">
         <v>1173</v>
@@ -1920,13 +1929,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="4">
         <v>1174</v>
@@ -1937,7 +1946,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>65</v>
@@ -1951,7 +1960,7 @@
         <v>122</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>123</v>
@@ -1962,10 +1971,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
@@ -1976,10 +1985,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>125</v>
@@ -1993,7 +2002,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>68</v>
@@ -2007,7 +2016,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>68</v>
@@ -2021,7 +2030,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>71</v>
@@ -2032,13 +2041,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D71" s="4">
         <v>1168</v>
@@ -2049,7 +2058,7 @@
         <v>126</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>72</v>
@@ -2063,7 +2072,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>74</v>
@@ -2077,7 +2086,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>74</v>
@@ -2091,7 +2100,7 @@
         <v>127</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>74</v>
@@ -2105,7 +2114,7 @@
         <v>129</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>76</v>
@@ -2119,7 +2128,7 @@
         <v>130</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>76</v>
@@ -2133,7 +2142,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>78</v>
@@ -2147,7 +2156,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>78</v>
@@ -2161,7 +2170,7 @@
         <v>131</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>132</v>
@@ -2175,7 +2184,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>81</v>
@@ -2189,7 +2198,7 @@
         <v>133</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>134</v>
@@ -2203,7 +2212,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>83</v>
@@ -2217,7 +2226,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>85</v>
@@ -2231,7 +2240,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>87</v>
@@ -2242,10 +2251,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>135</v>
@@ -2259,7 +2268,7 @@
         <v>136</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>137</v>
@@ -2273,7 +2282,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>89</v>
@@ -2287,7 +2296,7 @@
         <v>90</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>89</v>
@@ -2301,7 +2310,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>89</v>
@@ -2315,7 +2324,7 @@
         <v>138</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>92</v>
@@ -2329,7 +2338,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>92</v>
@@ -2343,7 +2352,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>92</v>
@@ -2354,13 +2363,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2371,7 +2380,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>96</v>
@@ -2385,7 +2394,7 @@
         <v>139</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>140</v>
@@ -2399,7 +2408,7 @@
         <v>141</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>142</v>
@@ -2410,10 +2419,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>143</v>
@@ -2427,7 +2436,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>98</v>
@@ -2443,13 +2452,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D99">
+  <conditionalFormatting sqref="A2:D70 A72:D99 B71:D71">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB8CCAC-C064-40EB-86CB-805CF30897B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB90EB4-4BD0-4545-89D5-DA80C36F40E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="185">
   <si>
     <t>Complemento</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>S010004</t>
-  </si>
-  <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
   </si>
   <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
@@ -704,16 +698,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1045,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1075,13 +1060,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1089,10 +1074,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1103,128 +1088,128 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>104</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4">
-        <v>1045</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,41 +1217,41 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>109</v>
+        <v>17</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,41 +1259,41 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,7 +1301,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1330,181 +1315,181 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D21" s="4">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D24" s="4">
-        <v>103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D25" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D26" s="4">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" s="4">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="D28" s="4">
-        <v>1179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>109</v>
+      <c r="D31" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1512,13 +1497,13 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1526,83 +1511,83 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D34" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D35" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D36" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="4">
-        <v>898</v>
+        <v>155</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>109</v>
+        <v>161</v>
+      </c>
+      <c r="D38" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D39" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1610,69 +1595,69 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="4">
-        <v>167</v>
+        <v>115</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>109</v>
+        <v>144</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1680,7 +1665,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1694,13 +1679,13 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1708,13 +1693,13 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,24 +1707,24 @@
         <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D49" s="4">
         <v>103</v>
@@ -1747,30 +1732,30 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D50" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D51" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1778,27 +1763,27 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="D53" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,10 +1791,10 @@
         <v>180</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1817,44 +1802,44 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D55" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="D56" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1862,10 +1847,10 @@
         <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>119</v>
@@ -1873,30 +1858,30 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>121</v>
+        <v>183</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D60" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,80 +1889,80 @@
         <v>175</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="D63" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="4">
-        <v>211</v>
+        <v>121</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>124</v>
+        <v>64</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="D66" s="4">
         <v>1167</v>
@@ -1985,16 +1970,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="D67" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2002,69 +1987,69 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D68" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D69" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="D70" s="4">
-        <v>553</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="D71" s="4">
-        <v>1168</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D72" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2072,27 +2057,27 @@
         <v>73</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D73" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74" s="4">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,111 +2085,111 @@
         <v>127</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>128</v>
+      <c r="D75" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D76" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D77" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D78" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="4">
-        <v>695</v>
+        <v>130</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>109</v>
+        <v>79</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D81" s="4">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>109</v>
+        <v>81</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2218,7 +2203,7 @@
         <v>83</v>
       </c>
       <c r="D83" s="4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,55 +2211,55 @@
         <v>84</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D84" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D85" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D86" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="D87" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2282,111 +2267,111 @@
         <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D88" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D89" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D90" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D91" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D92" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="D93" s="4">
-        <v>762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="D94" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D95" s="4">
-        <v>211</v>
+        <v>138</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,76 +2379,57 @@
         <v>139</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>101</v>
+      <c r="D97" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D99" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D99">
-      <sortCondition ref="A1:A99"/>
+  <autoFilter ref="A1:D98" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
+      <sortCondition ref="A1:A98"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="1" priority="25">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D70 A72:D99 B71:D71">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D98">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB90EB4-4BD0-4545-89D5-DA80C36F40E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D548F10E-0405-4242-8927-690E2AF3C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -548,9 +548,6 @@
     <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
   </si>
   <si>
-    <t>LIMPADOR MULTIUSO - CIF</t>
-  </si>
-  <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
   <si>
@@ -594,6 +591,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO PC C/4UND - PACOTE C/ 4</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1032,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1083,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>146</v>
@@ -1634,7 +1643,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>146</v>
@@ -1732,7 +1741,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>146</v>
@@ -1741,7 +1750,7 @@
         <v>55</v>
       </c>
       <c r="D50" s="4">
-        <v>910</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,13 +1783,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1788,13 +1797,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1802,13 +1811,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1858,13 +1867,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="4">
         <v>1181</v>
@@ -1872,13 +1881,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D60" s="4">
         <v>1172</v>
@@ -1886,13 +1895,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="4">
         <v>1173</v>
@@ -1900,13 +1909,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62" s="4">
         <v>1174</v>
@@ -1956,7 +1965,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>146</v>
@@ -2012,7 +2021,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>148</v>
@@ -2222,7 +2231,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>148</v>
@@ -2423,13 +2432,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="25">
+    <cfRule type="expression" dxfId="2" priority="26">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D98">
+  <conditionalFormatting sqref="A2:D49 A51:D98">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:D50">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D548F10E-0405-4242-8927-690E2AF3C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492A2E55-1EFF-4293-9A2B-BAE7C0E025B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="182">
   <si>
     <t>Complemento</t>
   </si>
@@ -260,9 +260,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>S200035</t>
   </si>
   <si>
@@ -414,12 +411,6 @@
   </si>
   <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>PILHA - AA</t>
@@ -698,16 +689,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1039,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1069,13 +1051,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1083,10 +1065,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1097,30 +1079,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1139,10 +1121,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1153,10 +1135,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1170,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1184,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1198,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1212,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1226,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1237,16 +1219,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,7 +1236,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -1268,7 +1250,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
@@ -1279,10 +1261,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1296,7 +1278,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1310,7 +1292,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1324,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1335,10 +1317,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1349,10 +1331,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
@@ -1366,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1377,13 +1359,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="4">
         <v>1176</v>
@@ -1391,13 +1373,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="4">
         <v>1177</v>
@@ -1405,13 +1387,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="4">
         <v>1178</v>
@@ -1419,13 +1401,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="4">
         <v>1179</v>
@@ -1436,7 +1418,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -1447,16 +1429,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1464,21 +1446,21 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1492,7 +1474,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
@@ -1506,7 +1488,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
@@ -1520,7 +1502,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1534,7 +1516,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -1548,7 +1530,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>37</v>
@@ -1559,27 +1541,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1590,7 +1572,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1604,7 +1586,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>42</v>
@@ -1615,27 +1597,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1643,10 +1625,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>44</v>
@@ -1660,7 +1642,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
@@ -1674,7 +1656,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1688,7 +1670,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
@@ -1702,7 +1684,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>52</v>
@@ -1716,7 +1698,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
@@ -1727,10 +1709,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>55</v>
@@ -1741,10 +1723,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>55</v>
@@ -1758,7 +1740,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
@@ -1772,7 +1754,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
@@ -1783,13 +1765,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1797,13 +1779,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1811,13 +1793,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1828,7 +1810,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>61</v>
@@ -1839,41 +1821,41 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D59" s="4">
         <v>1181</v>
@@ -1881,13 +1863,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D60" s="4">
         <v>1172</v>
@@ -1895,13 +1877,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D61" s="4">
         <v>1173</v>
@@ -1909,13 +1891,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D62" s="4">
         <v>1174</v>
@@ -1926,7 +1908,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>63</v>
@@ -1937,24 +1919,24 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>64</v>
@@ -1965,13 +1947,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66" s="4">
         <v>1167</v>
@@ -1982,7 +1964,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>66</v>
@@ -1996,7 +1978,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>66</v>
@@ -2010,7 +1992,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>69</v>
@@ -2021,13 +2003,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D70" s="4">
         <v>1168</v>
@@ -2035,10 +2017,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>70</v>
@@ -2052,7 +2034,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>72</v>
@@ -2063,16 +2045,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D73" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2080,94 +2062,94 @@
         <v>125</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>126</v>
+        <v>73</v>
+      </c>
+      <c r="D74" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D75" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D76" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="4">
-        <v>994</v>
+        <v>127</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D78" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2175,156 +2157,156 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>107</v>
+        <v>82</v>
+      </c>
+      <c r="D81" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D82" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D83" s="4">
-        <v>53</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="D84" s="4">
-        <v>107</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="D85" s="4">
-        <v>437</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D86" s="4">
-        <v>449</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D87" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D88" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D89" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="D91" s="4">
-        <v>569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2332,118 +2314,85 @@
         <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D92" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D93" s="4">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D94" s="4">
-        <v>211</v>
+        <v>137</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>107</v>
+      <c r="D95" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D97" s="4">
+        <v>95</v>
+      </c>
+      <c r="D96" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D98" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
-      <sortCondition ref="A1:A98"/>
+  <autoFilter ref="A1:D96" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
+      <sortCondition ref="A1:A96"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="1" priority="26">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D49 A51:D98">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D96">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:D50">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492A2E55-1EFF-4293-9A2B-BAE7C0E025B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BEEF10-836E-4C2A-A0F9-85310BB8BA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="180">
   <si>
     <t>Complemento</t>
   </si>
@@ -245,9 +245,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -458,9 +455,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>S010040</t>
-  </si>
-  <si>
     <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
   </si>
   <si>
@@ -479,9 +473,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC C/100</t>
   </si>
   <si>
@@ -581,10 +572,13 @@
     <t>S080026</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO PC C/4UND - PACOTE C/ 4</t>
-  </si>
-  <si>
     <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 30MT PC C/4</t>
   </si>
 </sst>
 </file>
@@ -689,7 +683,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1024,7 +1027,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+      <selection activeCell="A69" sqref="A69:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1051,13 +1054,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1065,10 +1068,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1079,30 +1082,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1121,10 +1124,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1135,10 +1138,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1152,7 +1155,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1166,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1180,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1194,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1208,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1219,16 +1222,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,7 +1239,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -1250,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
@@ -1261,10 +1264,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1278,7 +1281,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1292,7 +1295,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1306,7 +1309,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1317,10 +1320,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1331,10 +1334,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
@@ -1348,7 +1351,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1359,13 +1362,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="4">
         <v>1176</v>
@@ -1373,13 +1376,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="4">
         <v>1177</v>
@@ -1387,13 +1390,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="4">
         <v>1178</v>
@@ -1401,13 +1404,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4">
         <v>1179</v>
@@ -1418,7 +1421,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -1429,16 +1432,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,21 +1449,21 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1474,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
@@ -1488,7 +1491,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
@@ -1502,7 +1505,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1516,7 +1519,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -1530,7 +1533,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>37</v>
@@ -1541,27 +1544,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1572,7 +1575,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1586,7 +1589,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>42</v>
@@ -1597,27 +1600,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1625,10 +1628,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>44</v>
@@ -1642,7 +1645,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
@@ -1656,7 +1659,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1670,7 +1673,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
@@ -1684,7 +1687,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>52</v>
@@ -1698,7 +1701,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
@@ -1709,10 +1712,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>55</v>
@@ -1723,10 +1726,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>55</v>
@@ -1740,7 +1743,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
@@ -1754,7 +1757,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
@@ -1765,13 +1768,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1779,13 +1782,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1793,13 +1796,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1810,7 +1813,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>61</v>
@@ -1821,41 +1824,41 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D59" s="4">
         <v>1181</v>
@@ -1863,13 +1866,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D60" s="4">
         <v>1172</v>
@@ -1877,13 +1880,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D61" s="4">
         <v>1173</v>
@@ -1891,13 +1894,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D62" s="4">
         <v>1174</v>
@@ -1908,7 +1911,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>63</v>
@@ -1919,24 +1922,24 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>64</v>
@@ -1947,13 +1950,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" s="4">
         <v>1167</v>
@@ -1964,7 +1967,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>66</v>
@@ -1978,7 +1981,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>66</v>
@@ -1989,41 +1992,41 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D69" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="D70" s="4">
-        <v>1168</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="4">
         <v>72</v>
@@ -2031,13 +2034,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2045,13 +2048,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73" s="4">
         <v>55</v>
@@ -2059,13 +2062,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="4">
         <v>54</v>
@@ -2073,13 +2076,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D75" s="4">
         <v>994</v>
@@ -2087,13 +2090,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D76" s="4">
         <v>695</v>
@@ -2101,27 +2104,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2129,27 +2132,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2157,13 +2160,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D81" s="4">
         <v>53</v>
@@ -2171,13 +2174,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D82" s="4">
         <v>107</v>
@@ -2185,13 +2188,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D83" s="4">
         <v>437</v>
@@ -2199,13 +2202,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D84" s="4">
         <v>449</v>
@@ -2213,13 +2216,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D85" s="4">
         <v>170</v>
@@ -2227,13 +2230,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" s="4">
         <v>163</v>
@@ -2241,13 +2244,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" s="4">
         <v>799</v>
@@ -2255,13 +2258,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D88" s="4">
         <v>1127</v>
@@ -2269,13 +2272,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89" s="4">
         <v>569</v>
@@ -2283,13 +2286,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="4">
         <v>762</v>
@@ -2297,13 +2300,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2311,13 +2314,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D92" s="4">
         <v>211</v>
@@ -2325,41 +2328,41 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D93" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2367,13 +2370,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2386,13 +2389,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="26">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D96">
+  <conditionalFormatting sqref="A2:D68 A71:D96">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:D70">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A69))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BEEF10-836E-4C2A-A0F9-85310BB8BA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B183A8-B744-4994-B268-F0025F1D461C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 30MT PC C/4</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:D70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1054,13 +1054,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1082,30 +1082,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1155,7 +1155,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1169,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1183,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1211,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1222,16 +1222,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -1253,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1281,7 +1281,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1295,7 +1295,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -1309,7 +1309,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
@@ -1351,7 +1351,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -1362,13 +1362,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="4">
         <v>1176</v>
@@ -1376,13 +1376,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="4">
         <v>1177</v>
@@ -1390,13 +1390,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="4">
         <v>1178</v>
@@ -1404,13 +1404,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4">
         <v>1179</v>
@@ -1421,7 +1421,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -1432,16 +1432,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,21 +1449,21 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>35</v>
@@ -1491,7 +1491,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>37</v>
@@ -1505,7 +1505,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1519,7 +1519,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -1533,7 +1533,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>37</v>
@@ -1544,27 +1544,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1575,7 +1575,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1589,7 +1589,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>42</v>
@@ -1600,27 +1600,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>44</v>
@@ -1645,7 +1645,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>46</v>
@@ -1656,27 +1656,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D45" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1684,13 +1684,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D47" s="4">
         <v>40</v>
@@ -1698,13 +1698,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1712,13 +1712,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="4">
         <v>103</v>
@@ -1726,13 +1726,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="4">
         <v>1166</v>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D52" s="4">
         <v>745</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1782,13 +1782,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1796,13 +1796,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1810,13 +1810,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
@@ -1824,41 +1824,41 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D59" s="4">
         <v>1181</v>
@@ -1866,13 +1866,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D60" s="4">
         <v>1172</v>
@@ -1880,13 +1880,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D61" s="4">
         <v>1173</v>
@@ -1894,13 +1894,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D62" s="4">
         <v>1174</v>
@@ -1908,13 +1908,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D63" s="4">
         <v>211</v>
@@ -1922,27 +1922,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="4">
         <v>1167</v>
@@ -1950,13 +1950,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D66" s="4">
         <v>1167</v>
@@ -1964,13 +1964,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D67" s="4">
         <v>820</v>
@@ -1978,13 +1978,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="4">
         <v>819</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="4">
         <v>1394</v>
@@ -2006,13 +2006,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="4">
         <v>1393</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="4">
         <v>72</v>
@@ -2034,13 +2034,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2048,13 +2048,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="4">
         <v>55</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="4">
         <v>54</v>
@@ -2076,13 +2076,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="4">
         <v>994</v>
@@ -2090,13 +2090,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D76" s="4">
         <v>695</v>
@@ -2104,27 +2104,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2132,27 +2132,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2160,13 +2160,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D81" s="4">
         <v>53</v>
@@ -2174,13 +2174,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D82" s="4">
         <v>107</v>
@@ -2188,13 +2188,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D83" s="4">
         <v>437</v>
@@ -2202,13 +2202,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D84" s="4">
         <v>449</v>
@@ -2216,13 +2216,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D85" s="4">
         <v>170</v>
@@ -2230,13 +2230,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" s="4">
         <v>163</v>
@@ -2244,13 +2244,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D87" s="4">
         <v>799</v>
@@ -2258,13 +2258,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D88" s="4">
         <v>1127</v>
@@ -2272,13 +2272,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="4">
         <v>569</v>
@@ -2286,13 +2286,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" s="4">
         <v>762</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2314,13 +2314,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D92" s="4">
         <v>211</v>
@@ -2328,41 +2328,41 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D93" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2370,13 +2370,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2389,18 +2389,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D68 A71:D96">
+  <conditionalFormatting sqref="A2:D44 A46:D96">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:D70">
+  <conditionalFormatting sqref="A45:D45">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A69))&gt;0</formula>
+      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B183A8-B744-4994-B268-F0025F1D461C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A0D098-EB86-4BF0-83E8-F447F76A4D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="174">
   <si>
     <t>Complemento</t>
   </si>
@@ -83,9 +83,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -98,15 +95,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -128,24 +119,15 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -185,9 +167,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -206,9 +185,6 @@
     <t>S010027</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -266,15 +242,9 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
-    <t>RODO - UNICA</t>
-  </si>
-  <si>
     <t>S110029</t>
   </si>
   <si>
@@ -317,9 +287,6 @@
     <t>S040046</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -329,33 +296,18 @@
     <t>S020071</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>BALDE - 10L - 10L</t>
   </si>
   <si>
     <t>S110003</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X300 (GRANDE)</t>
   </si>
   <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X40 (PEQUENA)</t>
   </si>
   <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 150ML - 150ML</t>
   </si>
   <si>
@@ -371,36 +323,21 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - VERMELHO - VERMELHO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>PA PLASTICA P/ LIXO - CABO LONGO</t>
   </si>
   <si>
     <t>S110020</t>
   </si>
   <si>
-    <t>591</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -413,15 +350,9 @@
     <t>PILHA - AAA</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
@@ -437,9 +368,6 @@
     <t>SACOLA PLASTICA - 25X30</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -452,9 +380,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -482,9 +407,6 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
@@ -494,9 +416,6 @@
     <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
   </si>
   <si>
-    <t>TAPETE - UNICA</t>
-  </si>
-  <si>
     <t>S110059</t>
   </si>
   <si>
@@ -579,6 +498,69 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>RODO - C/ CABO 40CM</t>
+  </si>
+  <si>
+    <t>TAPETE - 1,20x0,80</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -661,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -678,21 +660,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1026,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:D45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1054,13 +1030,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1068,10 +1044,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1082,30 +1058,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="D5" s="6">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1124,10 +1100,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1138,10 +1114,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -1155,7 +1131,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1169,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1183,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1197,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1208,41 +1184,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>104</v>
+        <v>155</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1184</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -1250,13 +1226,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -1264,13 +1240,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -1278,41 +1254,41 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4">
         <v>52</v>
@@ -1320,13 +1296,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4">
         <v>109</v>
@@ -1334,13 +1310,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4">
         <v>105</v>
@@ -1348,13 +1324,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4">
         <v>103</v>
@@ -1362,13 +1338,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D24" s="4">
         <v>1176</v>
@@ -1376,13 +1352,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D25" s="4">
         <v>1177</v>
@@ -1390,13 +1366,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D26" s="4">
         <v>1178</v>
@@ -1404,13 +1380,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D27" s="4">
         <v>1179</v>
@@ -1418,55 +1394,55 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="D29" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>104</v>
+        <v>27</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1454</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4">
         <v>1162</v>
@@ -1474,27 +1450,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4">
         <v>899</v>
@@ -1502,13 +1478,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D34" s="4">
         <v>896</v>
@@ -1516,13 +1492,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D35" s="4">
         <v>900</v>
@@ -1530,13 +1506,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D36" s="4">
         <v>898</v>
@@ -1544,27 +1520,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1456</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1572,13 +1548,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D39" s="4">
         <v>166</v>
@@ -1586,13 +1562,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D40" s="4">
         <v>167</v>
@@ -1600,41 +1576,41 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
+      </c>
+      <c r="D41" s="4">
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D43" s="4">
         <v>448</v>
@@ -1642,13 +1618,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D44" s="4">
         <v>80</v>
@@ -1656,13 +1632,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D45" s="4">
         <v>1396</v>
@@ -1670,27 +1646,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D47" s="4">
         <v>40</v>
@@ -1698,13 +1674,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1712,13 +1688,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D49" s="4">
         <v>103</v>
@@ -1726,13 +1702,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D50" s="4">
         <v>1166</v>
@@ -1740,27 +1716,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D52" s="4">
         <v>745</v>
@@ -1768,13 +1744,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1782,13 +1758,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1796,13 +1772,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1810,13 +1786,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
@@ -1824,41 +1800,41 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>114</v>
+        <v>52</v>
+      </c>
+      <c r="D57" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>116</v>
+        <v>52</v>
+      </c>
+      <c r="D58" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D59" s="4">
         <v>1181</v>
@@ -1866,13 +1842,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D60" s="4">
         <v>1172</v>
@@ -1880,13 +1856,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D61" s="4">
         <v>1173</v>
@@ -1894,13 +1870,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D62" s="4">
         <v>1174</v>
@@ -1908,13 +1884,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D63" s="4">
         <v>211</v>
@@ -1922,27 +1898,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
+      </c>
+      <c r="D64" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D65" s="4">
         <v>1167</v>
@@ -1950,13 +1926,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D66" s="4">
         <v>1167</v>
@@ -1964,13 +1940,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D67" s="4">
         <v>820</v>
@@ -1978,13 +1954,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D68" s="4">
         <v>819</v>
@@ -1992,13 +1968,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D69" s="4">
         <v>1394</v>
@@ -2006,13 +1982,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D70" s="4">
         <v>1393</v>
@@ -2020,13 +1996,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D71" s="4">
         <v>72</v>
@@ -2034,13 +2010,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2048,13 +2024,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D73" s="4">
         <v>55</v>
@@ -2062,13 +2038,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D74" s="4">
         <v>54</v>
@@ -2076,13 +2052,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D75" s="4">
         <v>994</v>
@@ -2090,13 +2066,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D76" s="4">
         <v>695</v>
@@ -2104,69 +2080,69 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1457</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D78" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D79" s="4" t="s">
         <v>104</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1030</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D80" s="4">
-        <v>1</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D81" s="4">
         <v>53</v>
@@ -2174,13 +2150,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D82" s="4">
         <v>107</v>
@@ -2188,13 +2164,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D83" s="4">
         <v>437</v>
@@ -2202,13 +2178,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D84" s="4">
         <v>449</v>
@@ -2216,13 +2192,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D85" s="4">
         <v>170</v>
@@ -2230,13 +2206,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D86" s="4">
         <v>163</v>
@@ -2244,13 +2220,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D87" s="4">
         <v>799</v>
@@ -2258,13 +2234,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D88" s="4">
         <v>1127</v>
@@ -2272,13 +2248,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D89" s="4">
         <v>569</v>
@@ -2286,13 +2262,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D90" s="4">
         <v>762</v>
@@ -2300,27 +2276,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D91" s="4">
-        <v>1</v>
+        <v>878</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D92" s="4">
         <v>211</v>
@@ -2328,79 +2304,69 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="D93" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="D94" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D95" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D96" s="4">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D96" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
-      <sortCondition ref="A1:A96"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D44 A46:D96">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D96">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:D45">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A0D098-EB86-4BF0-83E8-F447F76A4D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2344A0A-1559-4E69-9C75-9CF6696307B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="176">
   <si>
     <t>Complemento</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>ESCOVA DE NYLON - VASO SANITARIO</t>
+  </si>
+  <si>
+    <t>S110017</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,63 +1428,63 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1454</v>
+        <v>175</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1449</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4">
-        <v>1162</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="4">
-        <v>1455</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D33" s="4">
-        <v>899</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>115</v>
@@ -1487,12 +1493,12 @@
         <v>31</v>
       </c>
       <c r="D34" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -1501,12 +1507,12 @@
         <v>31</v>
       </c>
       <c r="D35" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>115</v>
@@ -1515,54 +1521,54 @@
         <v>31</v>
       </c>
       <c r="D36" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="D37" s="4">
-        <v>1456</v>
+        <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D38" s="4">
-        <v>750</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="D39" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>115</v>
@@ -1571,130 +1577,130 @@
         <v>36</v>
       </c>
       <c r="D40" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D41" s="4">
-        <v>272</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D42" s="4">
-        <v>1157</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D43" s="4">
-        <v>448</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" s="4">
-        <v>80</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" s="4">
-        <v>1396</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="4">
-        <v>1416</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D47" s="4">
-        <v>40</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D48" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="4">
         <v>103</v>
@@ -1702,7 +1708,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>115</v>
@@ -1711,54 +1717,54 @@
         <v>47</v>
       </c>
       <c r="D50" s="4">
-        <v>1166</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="4">
-        <v>70</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D52" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="D53" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>115</v>
@@ -1772,7 +1778,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>115</v>
@@ -1781,26 +1787,26 @@
         <v>144</v>
       </c>
       <c r="D55" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>115</v>
@@ -1808,13 +1814,13 @@
       <c r="C57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="6">
-        <v>3</v>
+      <c r="D57" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>115</v>
@@ -1823,40 +1829,40 @@
         <v>52</v>
       </c>
       <c r="D58" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1181</v>
+        <v>52</v>
+      </c>
+      <c r="D59" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D60" s="4">
-        <v>1172</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>115</v>
@@ -1865,12 +1871,12 @@
         <v>139</v>
       </c>
       <c r="D61" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>115</v>
@@ -1879,60 +1885,60 @@
         <v>139</v>
       </c>
       <c r="D62" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="D63" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="6">
-        <v>591</v>
+        <v>54</v>
+      </c>
+      <c r="D64" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1167</v>
+        <v>98</v>
+      </c>
+      <c r="D65" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D66" s="4">
         <v>1167</v>
@@ -1940,21 +1946,21 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D67" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>117</v>
@@ -1963,26 +1969,26 @@
         <v>57</v>
       </c>
       <c r="D68" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D69" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>117</v>
@@ -1991,54 +1997,54 @@
         <v>59</v>
       </c>
       <c r="D70" s="4">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D71" s="4">
-        <v>72</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D72" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D73" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>115</v>
@@ -2047,26 +2053,26 @@
         <v>63</v>
       </c>
       <c r="D74" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D75" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>115</v>
@@ -2075,152 +2081,152 @@
         <v>65</v>
       </c>
       <c r="D76" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D77" s="4">
-        <v>1457</v>
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D78" s="4">
-        <v>1182</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="D79" s="4">
-        <v>1030</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="D80" s="4">
-        <v>1468</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D81" s="4">
-        <v>53</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D82" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D83" s="4">
-        <v>437</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D84" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D85" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D86" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>115</v>
@@ -2229,26 +2235,26 @@
         <v>74</v>
       </c>
       <c r="D87" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D88" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>119</v>
@@ -2257,12 +2263,12 @@
         <v>77</v>
       </c>
       <c r="D89" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>119</v>
@@ -2271,90 +2277,104 @@
         <v>77</v>
       </c>
       <c r="D90" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="D91" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D92" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D93" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D94" s="6">
-        <v>2</v>
+        <v>109</v>
+      </c>
+      <c r="D94" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="4">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="D95" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C96" s="4" t="s">
+      <c r="B97" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D97" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2364,7 +2384,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D96">
+  <conditionalFormatting sqref="A2:D97">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2344A0A-1559-4E69-9C75-9CF6696307B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBFE4C1-883B-4A62-889D-8B849B839CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="175">
   <si>
     <t>Complemento</t>
   </si>
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>S080026</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
@@ -1006,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1187,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>115</v>
@@ -1204,13 +1201,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D14" s="4">
         <v>1184</v>
@@ -1260,7 +1257,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>116</v>
@@ -1269,12 +1266,12 @@
         <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>116</v>
@@ -1400,7 +1397,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>115</v>
@@ -1428,13 +1425,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D30" s="6">
         <v>1449</v>
@@ -1442,7 +1439,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>115</v>
@@ -1470,7 +1467,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>115</v>
@@ -1540,7 +1537,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>115</v>
@@ -1596,7 +1593,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>115</v>
@@ -1610,7 +1607,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>115</v>
@@ -1652,7 +1649,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>116</v>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>115</v>
@@ -1722,49 +1719,49 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4">
-        <v>1166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D52" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="D53" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>115</v>
@@ -1778,7 +1775,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>115</v>
@@ -1787,26 +1784,26 @@
         <v>144</v>
       </c>
       <c r="D55" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="D56" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>115</v>
@@ -1814,13 +1811,13 @@
       <c r="C57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="4">
-        <v>2</v>
+      <c r="D57" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>115</v>
@@ -1829,40 +1826,40 @@
         <v>52</v>
       </c>
       <c r="D58" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="6">
-        <v>4</v>
+        <v>148</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D60" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>115</v>
@@ -1871,12 +1868,12 @@
         <v>139</v>
       </c>
       <c r="D61" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>115</v>
@@ -1885,60 +1882,60 @@
         <v>139</v>
       </c>
       <c r="D62" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="D63" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="4">
-        <v>211</v>
+        <v>98</v>
+      </c>
+      <c r="D64" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" s="6">
-        <v>591</v>
+        <v>55</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="D66" s="4">
         <v>1167</v>
@@ -1946,21 +1943,21 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="D67" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>117</v>
@@ -1969,21 +1966,21 @@
         <v>57</v>
       </c>
       <c r="D68" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D69" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,54 +1994,54 @@
         <v>59</v>
       </c>
       <c r="D70" s="4">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D71" s="4">
-        <v>1393</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D72" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D73" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>115</v>
@@ -2053,26 +2050,26 @@
         <v>63</v>
       </c>
       <c r="D74" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D75" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>115</v>
@@ -2081,21 +2078,21 @@
         <v>65</v>
       </c>
       <c r="D76" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D77" s="4">
-        <v>695</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2106,10 +2103,10 @@
         <v>115</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="D78" s="4">
-        <v>1457</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2120,10 +2117,10 @@
         <v>115</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D79" s="4">
-        <v>1182</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2134,99 +2131,99 @@
         <v>115</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D80" s="4">
-        <v>1030</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D81" s="4">
-        <v>1468</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D82" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D83" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D84" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D85" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D86" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>115</v>
@@ -2235,26 +2232,26 @@
         <v>74</v>
       </c>
       <c r="D87" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D88" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>119</v>
@@ -2263,12 +2260,12 @@
         <v>77</v>
       </c>
       <c r="D89" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>119</v>
@@ -2277,104 +2274,90 @@
         <v>77</v>
       </c>
       <c r="D90" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D91" s="4">
-        <v>762</v>
+        <v>878</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D92" s="4">
-        <v>878</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D93" s="4">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D94" s="4">
-        <v>202</v>
+        <v>111</v>
+      </c>
+      <c r="D94" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D95" s="6">
-        <v>2</v>
+        <v>112</v>
+      </c>
+      <c r="D95" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D96" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2384,7 +2367,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D97">
+  <conditionalFormatting sqref="A2:D96">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBFE4C1-883B-4A62-889D-8B849B839CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45998B87-EDE4-4388-9783-EC28945E5AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1350,7 @@
         <v>91</v>
       </c>
       <c r="D24" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
         <v>91</v>
       </c>
       <c r="D25" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="D27" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45998B87-EDE4-4388-9783-EC28945E5AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D81D986-4D3A-4211-9D6E-AC602C829FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="177">
   <si>
     <t>Complemento</t>
   </si>
@@ -564,6 +564,12 @@
   </si>
   <si>
     <t>S110017</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA - 200G - 200G</t>
+  </si>
+  <si>
+    <t>S010046</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,77 +2159,77 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="D82" s="4">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D83" s="4">
-        <v>437</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D84" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D85" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D86" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>115</v>
@@ -2232,26 +2238,26 @@
         <v>74</v>
       </c>
       <c r="D87" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D88" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>119</v>
@@ -2260,12 +2266,12 @@
         <v>77</v>
       </c>
       <c r="D89" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>119</v>
@@ -2274,90 +2280,104 @@
         <v>77</v>
       </c>
       <c r="D90" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="D91" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D92" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D93" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D94" s="6">
-        <v>2</v>
+        <v>109</v>
+      </c>
+      <c r="D94" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="4">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="D95" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C96" s="4" t="s">
+      <c r="B97" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D97" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2367,7 +2387,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D96">
+  <conditionalFormatting sqref="A2:D97">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D81D986-4D3A-4211-9D6E-AC602C829FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3702A33-34FF-46B4-B723-6C6B6093FB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="176">
   <si>
     <t>Complemento</t>
   </si>
@@ -489,9 +489,6 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO - 30MT PC C/4</t>
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
@@ -1009,11 +1006,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1193,7 +1188,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>115</v>
@@ -1207,13 +1202,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D14" s="4">
         <v>1184</v>
@@ -1263,7 +1258,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>116</v>
@@ -1272,12 +1267,12 @@
         <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>116</v>
@@ -1403,7 +1398,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>115</v>
@@ -1431,13 +1426,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D30" s="6">
         <v>1449</v>
@@ -1445,7 +1440,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>115</v>
@@ -1473,7 +1468,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>115</v>
@@ -1543,7 +1538,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>115</v>
@@ -1599,7 +1594,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>115</v>
@@ -1613,7 +1608,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>115</v>
@@ -1655,7 +1650,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>116</v>
@@ -1669,7 +1664,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>115</v>
@@ -1725,7 +1720,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>115</v>
@@ -1991,49 +1986,49 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70" s="4">
-        <v>1393</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D71" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D72" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>115</v>
@@ -2042,26 +2037,26 @@
         <v>63</v>
       </c>
       <c r="D73" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D74" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>115</v>
@@ -2070,21 +2065,21 @@
         <v>65</v>
       </c>
       <c r="D75" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D76" s="4">
-        <v>695</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2095,10 +2090,10 @@
         <v>115</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="D77" s="4">
-        <v>1457</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2109,10 +2104,10 @@
         <v>115</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D78" s="4">
-        <v>1182</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2123,113 +2118,113 @@
         <v>115</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D79" s="4">
-        <v>1030</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D80" s="4">
-        <v>1468</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="D81" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="D82" s="4">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D83" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D84" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D85" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D86" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>115</v>
@@ -2238,26 +2233,26 @@
         <v>74</v>
       </c>
       <c r="D87" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D88" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>119</v>
@@ -2266,12 +2261,12 @@
         <v>77</v>
       </c>
       <c r="D89" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>119</v>
@@ -2280,104 +2275,90 @@
         <v>77</v>
       </c>
       <c r="D90" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D91" s="4">
-        <v>762</v>
+        <v>878</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D92" s="4">
-        <v>878</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D93" s="4">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D94" s="4">
-        <v>202</v>
+        <v>111</v>
+      </c>
+      <c r="D94" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D95" s="6">
-        <v>2</v>
+        <v>112</v>
+      </c>
+      <c r="D95" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D96" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2387,7 +2368,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D97">
+  <conditionalFormatting sqref="A2:D96">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3702A33-34FF-46B4-B723-6C6B6093FB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562114AE-4DD2-4071-BE00-AECD5E2CBF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -527,9 +527,6 @@
     <t>FITA DUPLA FACE - 19mm x 3m</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
-  </si>
-  <si>
     <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>S010046</t>
+  </si>
+  <si>
+    <t>FITILHO EMFESTA - 5MMX50M</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1426,13 +1428,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D30" s="6">
         <v>1449</v>
@@ -1608,7 +1610,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>115</v>
@@ -1617,7 +1619,7 @@
         <v>113</v>
       </c>
       <c r="D43" s="4">
-        <v>1157</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,7 +1666,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>115</v>
@@ -1720,7 +1722,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>115</v>
@@ -2070,7 +2072,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>115</v>
@@ -2084,7 +2086,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>115</v>
@@ -2098,7 +2100,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>115</v>
@@ -2112,7 +2114,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>115</v>
@@ -2140,13 +2142,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D81" s="4">
         <v>51</v>
@@ -2280,7 +2282,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>115</v>
@@ -2308,7 +2310,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
@@ -2350,7 +2352,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>115</v>

--- a/pages/PI_ssoservi_sservico_ssala.xlsx
+++ b/pages/PI_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562114AE-4DD2-4071-BE00-AECD5E2CBF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6D1DBD-E47D-4964-BC86-AB1CA8A420E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="178">
   <si>
     <t>Complemento</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>FITILHO EMFESTA - 5MMX50M</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,91 +1406,91 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1436</v>
+        <v>93</v>
+      </c>
+      <c r="D28" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="D29" s="6">
-        <v>12</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1449</v>
+        <v>27</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1454</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4">
-        <v>1454</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4">
-        <v>1455</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>115</v>
@@ -1493,12 +1499,12 @@
         <v>31</v>
       </c>
       <c r="D34" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -1507,12 +1513,12 @@
         <v>31</v>
       </c>
       <c r="D35" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>115</v>
@@ -1521,54 +1527,54 @@
         <v>31</v>
       </c>
       <c r="D36" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="D37" s="4">
-        <v>898</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D38" s="4">
-        <v>1456</v>
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="D39" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>115</v>
@@ -1577,91 +1583,91 @@
         <v>36</v>
       </c>
       <c r="D40" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="D41" s="4">
-        <v>167</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D42" s="4">
-        <v>272</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D43" s="4">
-        <v>1469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D44" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D45" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="4">
         <v>116</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1396</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2128,30 +2134,30 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="D80" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="D81" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,21 +2246,21 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D88" s="4">
-        <v>1127</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>119</v>
@@ -2263,12 +2269,12 @@
         <v>77</v>
       </c>
       <c r="D89" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>119</v>
@@ -2277,77 +2283,77 @@
         <v>77</v>
       </c>
       <c r="D90" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="D91" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D92" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D93" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D94" s="6">
-        <v>2</v>
+        <v>109</v>
+      </c>
+      <c r="D94" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="4">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="D95" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,13 +2370,32 @@
         <v>1458</v>
       </c>
     </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" s="4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D97" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
+      <sortCondition ref="A1:A97"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="expression" dxfId="1" priority="28">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D96">
+  <conditionalFormatting sqref="A2:D97">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
